--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,40 +437,18 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>johan</v>
+        <v>Stiven</v>
       </c>
       <c r="B4" t="str">
         <v>1234</v>
       </c>
       <c r="C4" t="str">
-        <v>VENDEDOR</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1234</v>
-      </c>
-      <c r="C5" t="str">
-        <v>ADMIN</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Stiven</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1234</v>
-      </c>
-      <c r="C6" t="str">
         <v>ADMIN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,9 +446,20 @@
         <v>ADMIN</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Juanita</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1234</v>
+      </c>
+      <c r="C5" t="str">
+        <v>VENDEDOR</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -415,18 +415,18 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Martha</v>
+        <v>Laura</v>
       </c>
       <c r="B2" t="str">
         <v>1234</v>
       </c>
       <c r="C2" t="str">
-        <v>ADMIN</v>
+        <v>VENDEDOR</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Laura</v>
+        <v>Juanita</v>
       </c>
       <c r="B3" t="str">
         <v>1234</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Stiven</v>
+        <v>Jorge</v>
       </c>
       <c r="B4" t="str">
         <v>1234</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Juanita</v>
+        <v>Stiven</v>
       </c>
       <c r="B5" t="str">
         <v>1234</v>
       </c>
       <c r="C5" t="str">
-        <v>VENDEDOR</v>
+        <v>ADMIN</v>
       </c>
     </row>
   </sheetData>

--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +440,7 @@
         <v>Jorge</v>
       </c>
       <c r="B4" t="str">
-        <v>1234</v>
+        <v>12345</v>
       </c>
       <c r="C4" t="str">
         <v>ADMIN</v>
@@ -457,9 +457,86 @@
         <v>ADMIN</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>jhojan</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1234</v>
+      </c>
+      <c r="C6" t="str">
+        <v>VENDEDOR</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Luisa</v>
+      </c>
+      <c r="B7" t="str">
+        <v>12345</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ADMIN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Valeria</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1234</v>
+      </c>
+      <c r="C8" t="str">
+        <v>VENDEDOR</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Fredy</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1234</v>
+      </c>
+      <c r="C9" t="str">
+        <v>VENDEDOR</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Dianis</v>
+      </c>
+      <c r="B10" t="str">
+        <v>12345</v>
+      </c>
+      <c r="C10" t="str">
+        <v>ADMIN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Alexander</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1234</v>
+      </c>
+      <c r="C11" t="str">
+        <v>VENDEDOR</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Martha</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1234</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ADMIN</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -440,7 +440,7 @@
         <v>Jorge</v>
       </c>
       <c r="B4" t="str">
-        <v>12345</v>
+        <v>jorgenel@2026</v>
       </c>
       <c r="C4" t="str">
         <v>ADMIN</v>

--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Luisa</v>
+        <v>Luisa-Dreisy</v>
       </c>
       <c r="B7" t="str">
         <v>12345</v>
